--- a/biology/Botanique/Promenade_de_l'Helvétie/Promenade_de_l'Helvétie.xlsx
+++ b/biology/Botanique/Promenade_de_l'Helvétie/Promenade_de_l'Helvétie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Promenade_de_l%27Helv%C3%A9tie</t>
+          <t>Promenade_de_l'Helvétie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La promenade de l'Helvétie ou jardin des sens est un jardin botanique / jardin des Cinq sens / promenade le long du Doubs, avenue d'Helvétie, au bord du centre historique de Besançon (la Boucle) dans le Doubs en Bourgogne-Franche-Comté[1].
+La promenade de l'Helvétie ou jardin des sens est un jardin botanique / jardin des Cinq sens / promenade le long du Doubs, avenue d'Helvétie, au bord du centre historique de Besançon (la Boucle) dans le Doubs en Bourgogne-Franche-Comté.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Promenade_de_l%27Helv%C3%A9tie</t>
+          <t>Promenade_de_l'Helvétie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la fin des années 1980 le jardin est structuré en jardin des Cinq sens, avec de nombreux végétaux, arbustes et fleurs faisant appel aux cinq sens, marquées avec noms et explications en français, en latin et en braille.
 Les cinq sens :
